--- a/modules/test_data/test_railway_parameters.xlsx
+++ b/modules/test_data/test_railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -204,12 +204,6 @@
     <t>coef_b_track_cost</t>
   </si>
   <si>
-    <t>crf_track</t>
-  </si>
-  <si>
-    <t>Capital recovery factor of the track.</t>
-  </si>
-  <si>
     <t>Coefficient "b" for track maintenance cost equation (coef).</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>Weight of a locomotive (ton).</t>
   </si>
   <si>
-    <t>Wage cost of maintaining a turnout.</t>
-  </si>
-  <si>
     <t>yearly_wages_by_turnout</t>
   </si>
   <si>
@@ -256,6 +247,27 @@
   </si>
   <si>
     <t>Minimum density to consider a link as being a main track (ton-km/ton = ton).</t>
+  </si>
+  <si>
+    <t>gross_tk_in_hq_track_lifetime</t>
+  </si>
+  <si>
+    <t>high_quality_track_price</t>
+  </si>
+  <si>
+    <t>interest_rate</t>
+  </si>
+  <si>
+    <t>Interest rate used to calculate capital recovery factor (rate).</t>
+  </si>
+  <si>
+    <t>Wage cost of maintaining a turnout (USD).</t>
+  </si>
+  <si>
+    <t>Design tons for high quality track. Gross tons that a hq track is suposed to support during its lifetime (gross ton-km).</t>
+  </si>
+  <si>
+    <t>The price of 1km of hight quality track (USD/km).</t>
   </si>
 </sst>
 </file>
@@ -634,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,46 +876,46 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4">
         <v>1.67</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5">
         <v>760000</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -917,16 +929,16 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92" customWidth="1"/>
   </cols>
   <sheetData>
@@ -971,7 +983,7 @@
         <v>10.34046</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,7 +1005,7 @@
         <v>458.46100000000001</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,7 +1016,7 @@
         <v>175000</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,40 +1027,62 @@
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4">
-        <v>8.8827433387272267E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5">
         <v>109500</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="5">
+        <v>800000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
